--- a/Code/Results/Cases/Case_1_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006338893717812</v>
+        <v>1.042315208657007</v>
       </c>
       <c r="D2">
-        <v>1.033340780053692</v>
+        <v>1.036800625962593</v>
       </c>
       <c r="E2">
-        <v>1.018156126608982</v>
+        <v>1.04940325582198</v>
       </c>
       <c r="F2">
-        <v>1.020856701071897</v>
+        <v>1.057760421188101</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050553900518562</v>
+        <v>1.039793709644768</v>
       </c>
       <c r="J2">
-        <v>1.028331648577761</v>
+        <v>1.047391692388213</v>
       </c>
       <c r="K2">
-        <v>1.044354373241043</v>
+        <v>1.039593331127416</v>
       </c>
       <c r="L2">
-        <v>1.029368182479534</v>
+        <v>1.052160411215785</v>
       </c>
       <c r="M2">
-        <v>1.032032919136592</v>
+        <v>1.060494508644685</v>
       </c>
       <c r="N2">
-        <v>1.012861596921958</v>
+        <v>1.019621067833031</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012138235999001</v>
+        <v>1.04350435527642</v>
       </c>
       <c r="D3">
-        <v>1.036170464343058</v>
+        <v>1.037363547642832</v>
       </c>
       <c r="E3">
-        <v>1.023224290530918</v>
+        <v>1.050497898448737</v>
       </c>
       <c r="F3">
-        <v>1.026636053164933</v>
+        <v>1.059027304634823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052268773340457</v>
+        <v>1.040061590554108</v>
       </c>
       <c r="J3">
-        <v>1.032303382334513</v>
+        <v>1.048226035729607</v>
       </c>
       <c r="K3">
-        <v>1.046360545150454</v>
+        <v>1.039966583463774</v>
       </c>
       <c r="L3">
-        <v>1.033568391668636</v>
+        <v>1.053066563696003</v>
       </c>
       <c r="M3">
-        <v>1.036939097056969</v>
+        <v>1.061574142107846</v>
       </c>
       <c r="N3">
-        <v>1.014225985007105</v>
+        <v>1.019903609287751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015797528808435</v>
+        <v>1.044273430608172</v>
       </c>
       <c r="D4">
-        <v>1.03796067253375</v>
+        <v>1.037727525350693</v>
       </c>
       <c r="E4">
-        <v>1.026428524401234</v>
+        <v>1.051206245785404</v>
       </c>
       <c r="F4">
-        <v>1.03029117957539</v>
+        <v>1.059847393168399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053339170761539</v>
+        <v>1.040233309818786</v>
       </c>
       <c r="J4">
-        <v>1.034805586438352</v>
+        <v>1.04876500980023</v>
       </c>
       <c r="K4">
-        <v>1.047621555808471</v>
+        <v>1.040207129149878</v>
       </c>
       <c r="L4">
-        <v>1.036218110209733</v>
+        <v>1.053652354057521</v>
       </c>
       <c r="M4">
-        <v>1.040037261811314</v>
+        <v>1.062272509390017</v>
       </c>
       <c r="N4">
-        <v>1.015085010230926</v>
+        <v>1.02008598581088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017314561449932</v>
+        <v>1.044596660283887</v>
       </c>
       <c r="D5">
-        <v>1.038703836940223</v>
+        <v>1.037880476017008</v>
       </c>
       <c r="E5">
-        <v>1.027758362612358</v>
+        <v>1.051504045809342</v>
       </c>
       <c r="F5">
-        <v>1.031808475812191</v>
+        <v>1.060192239027051</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053780059620851</v>
+        <v>1.040305113380398</v>
       </c>
       <c r="J5">
-        <v>1.035841942884597</v>
+        <v>1.048991379598007</v>
       </c>
       <c r="K5">
-        <v>1.048143078604221</v>
+        <v>1.040308021119713</v>
       </c>
       <c r="L5">
-        <v>1.037316425518581</v>
+        <v>1.053898489504403</v>
       </c>
       <c r="M5">
-        <v>1.041322211150857</v>
+        <v>1.062566049809865</v>
       </c>
       <c r="N5">
-        <v>1.015440659157721</v>
+        <v>1.020162550205713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017568054589326</v>
+        <v>1.04465092676918</v>
       </c>
       <c r="D6">
-        <v>1.038828073093223</v>
+        <v>1.037906153237088</v>
       </c>
       <c r="E6">
-        <v>1.027980660255805</v>
+        <v>1.051554048410385</v>
       </c>
       <c r="F6">
-        <v>1.032062129060941</v>
+        <v>1.060250144938766</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053853560833776</v>
+        <v>1.040317146808789</v>
       </c>
       <c r="J6">
-        <v>1.036015056909721</v>
+        <v>1.049029375510372</v>
       </c>
       <c r="K6">
-        <v>1.048230147718345</v>
+        <v>1.040324947625668</v>
       </c>
       <c r="L6">
-        <v>1.037499940016747</v>
+        <v>1.053939809088383</v>
       </c>
       <c r="M6">
-        <v>1.041536954381478</v>
+        <v>1.0626153334581</v>
       </c>
       <c r="N6">
-        <v>1.015500058610018</v>
+        <v>1.02017539945487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015817882032515</v>
+        <v>1.04427774996863</v>
       </c>
       <c r="D7">
-        <v>1.037970639405416</v>
+        <v>1.0377295693437</v>
       </c>
       <c r="E7">
-        <v>1.026446360434295</v>
+        <v>1.05121022496003</v>
       </c>
       <c r="F7">
-        <v>1.030311528509612</v>
+        <v>1.059852000696811</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053345097353401</v>
+        <v>1.040234270782951</v>
       </c>
       <c r="J7">
-        <v>1.034819494628162</v>
+        <v>1.048768035407718</v>
       </c>
       <c r="K7">
-        <v>1.047628557879794</v>
+        <v>1.040208478191043</v>
       </c>
       <c r="L7">
-        <v>1.036232846490218</v>
+        <v>1.05365564344413</v>
       </c>
       <c r="M7">
-        <v>1.040054499202633</v>
+        <v>1.062276431898789</v>
       </c>
       <c r="N7">
-        <v>1.015089783703748</v>
+        <v>1.020087009287011</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008318740700246</v>
+        <v>1.04271716655607</v>
       </c>
       <c r="D8">
-        <v>1.034305732541239</v>
+        <v>1.036990923424569</v>
       </c>
       <c r="E8">
-        <v>1.019884996048695</v>
+        <v>1.049773187754193</v>
       </c>
       <c r="F8">
-        <v>1.022827923864991</v>
+        <v>1.05818850295723</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051141754092448</v>
+        <v>1.039884576210931</v>
       </c>
       <c r="J8">
-        <v>1.029688355485368</v>
+        <v>1.047673849970456</v>
       </c>
       <c r="K8">
-        <v>1.045040227829693</v>
+        <v>1.039719674858042</v>
       </c>
       <c r="L8">
-        <v>1.03080218419744</v>
+        <v>1.052466764394224</v>
       </c>
       <c r="M8">
-        <v>1.033707305921341</v>
+        <v>1.06085942379625</v>
       </c>
       <c r="N8">
-        <v>1.013327767538288</v>
+        <v>1.019716646677932</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9943416178385505</v>
+        <v>1.039964209072073</v>
       </c>
       <c r="D9">
-        <v>1.027519610920643</v>
+        <v>1.035687302469487</v>
       </c>
       <c r="E9">
-        <v>1.007709073295207</v>
+        <v>1.047241202055711</v>
       </c>
       <c r="F9">
-        <v>1.008949502817503</v>
+        <v>1.055259665297458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046944675757791</v>
+        <v>1.039255978611594</v>
       </c>
       <c r="J9">
-        <v>1.020095782722906</v>
+        <v>1.045738802657128</v>
       </c>
       <c r="K9">
-        <v>1.040181440525443</v>
+        <v>1.038850900644257</v>
       </c>
       <c r="L9">
-        <v>1.020678302230698</v>
+        <v>1.050367540426369</v>
       </c>
       <c r="M9">
-        <v>1.021899030343564</v>
+        <v>1.058360669571199</v>
       </c>
       <c r="N9">
-        <v>1.010029791634579</v>
+        <v>1.01906058818635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9844368742034277</v>
+        <v>1.038126760129324</v>
       </c>
       <c r="D10">
-        <v>1.022751119494951</v>
+        <v>1.034816904084407</v>
       </c>
       <c r="E10">
-        <v>0.9991211408063603</v>
+        <v>1.04555330970536</v>
       </c>
       <c r="F10">
-        <v>0.999165026128898</v>
+        <v>1.053308657039039</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043913854693495</v>
+        <v>1.038828577559311</v>
       </c>
       <c r="J10">
-        <v>1.013281869737436</v>
+        <v>1.044444030248121</v>
       </c>
       <c r="K10">
-        <v>1.036721396482287</v>
+        <v>1.038266735053468</v>
       </c>
       <c r="L10">
-        <v>1.013506281478656</v>
+        <v>1.04896511911305</v>
       </c>
       <c r="M10">
-        <v>1.013549372669713</v>
+        <v>1.056693532682821</v>
       </c>
       <c r="N10">
-        <v>1.007685142332015</v>
+        <v>1.01862089161656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9799902851482838</v>
+        <v>1.037330588411209</v>
       </c>
       <c r="D11">
-        <v>1.020622413728316</v>
+        <v>1.034439709186721</v>
       </c>
       <c r="E11">
-        <v>0.9952763442182456</v>
+        <v>1.044822439405049</v>
       </c>
       <c r="F11">
-        <v>0.9947851175016029</v>
+        <v>1.052464192978178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042540925799538</v>
+        <v>1.038641529329598</v>
       </c>
       <c r="J11">
-        <v>1.010219852246505</v>
+        <v>1.043882239517319</v>
       </c>
       <c r="K11">
-        <v>1.03516562601014</v>
+        <v>1.038012606653993</v>
       </c>
       <c r="L11">
-        <v>1.010287894966811</v>
+        <v>1.048357141916208</v>
       </c>
       <c r="M11">
-        <v>1.009806053541405</v>
+        <v>1.055971315263222</v>
       </c>
       <c r="N11">
-        <v>1.006631194579644</v>
+        <v>1.018429942855686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9783131538903093</v>
+        <v>1.037034770551314</v>
       </c>
       <c r="D12">
-        <v>1.019821556231806</v>
+        <v>1.03429955686657</v>
       </c>
       <c r="E12">
-        <v>0.9938278862220145</v>
+        <v>1.044550959753744</v>
       </c>
       <c r="F12">
-        <v>0.9931351123867593</v>
+        <v>1.05215056967872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04202135360746</v>
+        <v>1.038571753479902</v>
       </c>
       <c r="J12">
-        <v>1.009064568585058</v>
+        <v>1.043673391855925</v>
       </c>
       <c r="K12">
-        <v>1.034578610482604</v>
+        <v>1.037918034864038</v>
       </c>
       <c r="L12">
-        <v>1.009074297261282</v>
+        <v>1.048131202517521</v>
       </c>
       <c r="M12">
-        <v>1.008395025294796</v>
+        <v>1.055702999212001</v>
       </c>
       <c r="N12">
-        <v>1.006233512010034</v>
+        <v>1.01835893187749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.978674087111063</v>
+        <v>1.037098228338032</v>
       </c>
       <c r="D13">
-        <v>1.019993812233619</v>
+        <v>1.034329622055139</v>
       </c>
       <c r="E13">
-        <v>0.9941395288526156</v>
+        <v>1.044609193171557</v>
       </c>
       <c r="F13">
-        <v>0.9934901174052295</v>
+        <v>1.052217840791925</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042133246926657</v>
+        <v>1.038586734116627</v>
       </c>
       <c r="J13">
-        <v>1.009313211283042</v>
+        <v>1.043718198265808</v>
       </c>
       <c r="K13">
-        <v>1.034704948920152</v>
+        <v>1.037938328848639</v>
       </c>
       <c r="L13">
-        <v>1.009335459603476</v>
+        <v>1.048179672269169</v>
       </c>
       <c r="M13">
-        <v>1.008698651195244</v>
+        <v>1.055760556314189</v>
       </c>
       <c r="N13">
-        <v>1.00631910340756</v>
+        <v>1.018374167785597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9798521833783775</v>
+        <v>1.03730613774732</v>
       </c>
       <c r="D14">
-        <v>1.020556425296891</v>
+        <v>1.034428125072964</v>
       </c>
       <c r="E14">
-        <v>0.9951570373605771</v>
+        <v>1.044799998860086</v>
       </c>
       <c r="F14">
-        <v>0.9946492088662191</v>
+        <v>1.052438267806453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042498176844368</v>
+        <v>1.038635767712611</v>
       </c>
       <c r="J14">
-        <v>1.010124728658794</v>
+        <v>1.043864979653592</v>
       </c>
       <c r="K14">
-        <v>1.035117292414527</v>
+        <v>1.038004792933648</v>
       </c>
       <c r="L14">
-        <v>1.01018795606276</v>
+        <v>1.04833846793948</v>
       </c>
       <c r="M14">
-        <v>1.009689846068808</v>
+        <v>1.055949137253228</v>
       </c>
       <c r="N14">
-        <v>1.006598450842425</v>
+        <v>1.018424074784068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805746165098711</v>
+        <v>1.03743422636026</v>
       </c>
       <c r="D15">
-        <v>1.020901705724738</v>
+        <v>1.034488810046861</v>
       </c>
       <c r="E15">
-        <v>0.9957812207352215</v>
+        <v>1.044917560244702</v>
       </c>
       <c r="F15">
-        <v>0.9953602502089127</v>
+        <v>1.052574086495019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042721733454197</v>
+        <v>1.038665939460101</v>
       </c>
       <c r="J15">
-        <v>1.010622321055489</v>
+        <v>1.043955393468165</v>
       </c>
       <c r="K15">
-        <v>1.035370125283486</v>
+        <v>1.038045720177465</v>
       </c>
       <c r="L15">
-        <v>1.010710765221464</v>
+        <v>1.048436292625185</v>
       </c>
       <c r="M15">
-        <v>1.010297781546633</v>
+        <v>1.056065321202283</v>
       </c>
       <c r="N15">
-        <v>1.006769732369261</v>
+        <v>1.018454812976435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9847285087439076</v>
+        <v>1.038179587747436</v>
       </c>
       <c r="D16">
-        <v>1.022891001480837</v>
+        <v>1.034841930869288</v>
       </c>
       <c r="E16">
-        <v>0.9993735347874592</v>
+        <v>1.045601814985224</v>
       </c>
       <c r="F16">
-        <v>0.9994525565632332</v>
+        <v>1.053364708221711</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044003653328322</v>
+        <v>1.03884094958315</v>
       </c>
       <c r="J16">
-        <v>1.013482639474613</v>
+        <v>1.044481290186952</v>
       </c>
       <c r="K16">
-        <v>1.036823394807425</v>
+        <v>1.038283575858406</v>
       </c>
       <c r="L16">
-        <v>1.013717398442087</v>
+        <v>1.049005453270176</v>
       </c>
       <c r="M16">
-        <v>1.01379499547781</v>
+        <v>1.056741456635065</v>
       </c>
       <c r="N16">
-        <v>1.007754241972641</v>
+        <v>1.018633552483496</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9872907021024512</v>
+        <v>1.038646985810553</v>
       </c>
       <c r="D17">
-        <v>1.02412134281007</v>
+        <v>1.035063352650953</v>
       </c>
       <c r="E17">
-        <v>1.001592190593843</v>
+        <v>1.046031028294044</v>
       </c>
       <c r="F17">
-        <v>1.001980138526142</v>
+        <v>1.053860732629976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044791210583552</v>
+        <v>1.038950198349312</v>
       </c>
       <c r="J17">
-        <v>1.015246195765431</v>
+        <v>1.044810863546665</v>
       </c>
       <c r="K17">
-        <v>1.037719255041107</v>
+        <v>1.038432460455647</v>
       </c>
       <c r="L17">
-        <v>1.015572360416276</v>
+        <v>1.049362279014987</v>
       </c>
       <c r="M17">
-        <v>1.015953537591719</v>
+        <v>1.057165487233743</v>
       </c>
       <c r="N17">
-        <v>1.00836117734176</v>
+        <v>1.018745521591502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9887700918379139</v>
+        <v>1.038919558854289</v>
       </c>
       <c r="D18">
-        <v>1.024832853269517</v>
+        <v>1.035192474594813</v>
       </c>
       <c r="E18">
-        <v>1.002874221414531</v>
+        <v>1.046281381094754</v>
       </c>
       <c r="F18">
-        <v>1.003440737050038</v>
+        <v>1.054150087781443</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045244772566342</v>
+        <v>1.039013730208177</v>
       </c>
       <c r="J18">
-        <v>1.016264169228736</v>
+        <v>1.045002987663223</v>
       </c>
       <c r="K18">
-        <v>1.038236277762917</v>
+        <v>1.038519188374241</v>
       </c>
       <c r="L18">
-        <v>1.016643525803729</v>
+        <v>1.049570340114941</v>
       </c>
       <c r="M18">
-        <v>1.017200342022998</v>
+        <v>1.057412784800769</v>
       </c>
       <c r="N18">
-        <v>1.008711486485755</v>
+        <v>1.018810777538475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9892720161198474</v>
+        <v>1.039012490414978</v>
       </c>
       <c r="D19">
-        <v>1.025074436883839</v>
+        <v>1.035236496791529</v>
       </c>
       <c r="E19">
-        <v>1.003309352530661</v>
+        <v>1.046366744968029</v>
       </c>
       <c r="F19">
-        <v>1.003936486302526</v>
+        <v>1.054248755988095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045398455143707</v>
+        <v>1.039035360523133</v>
       </c>
       <c r="J19">
-        <v>1.01660949380339</v>
+        <v>1.045068478331054</v>
       </c>
       <c r="K19">
-        <v>1.038411647367586</v>
+        <v>1.03854874101857</v>
       </c>
       <c r="L19">
-        <v>1.017006967535135</v>
+        <v>1.049641271860196</v>
       </c>
       <c r="M19">
-        <v>1.017623434421533</v>
+        <v>1.057497101455705</v>
       </c>
       <c r="N19">
-        <v>1.008830315356712</v>
+        <v>1.018833019026403</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9870173764952663</v>
+        <v>1.038596843854517</v>
       </c>
       <c r="D20">
-        <v>1.023989976431889</v>
+        <v>1.035039599249745</v>
       </c>
       <c r="E20">
-        <v>1.001355408164298</v>
+        <v>1.04598497778699</v>
       </c>
       <c r="F20">
-        <v>1.001710380768789</v>
+        <v>1.053807510559644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044707317278777</v>
+        <v>1.038938496758784</v>
       </c>
       <c r="J20">
-        <v>1.015058095447368</v>
+        <v>1.04477551487966</v>
       </c>
       <c r="K20">
-        <v>1.03762371178309</v>
+        <v>1.038416498332344</v>
       </c>
       <c r="L20">
-        <v>1.015374466150281</v>
+        <v>1.049324002171369</v>
       </c>
       <c r="M20">
-        <v>1.015723221718168</v>
+        <v>1.057119996119541</v>
       </c>
       <c r="N20">
-        <v>1.008296444915335</v>
+        <v>1.018733513927487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795059815623953</v>
+        <v>1.037244915953478</v>
       </c>
       <c r="D21">
-        <v>1.020391035017384</v>
+        <v>1.034399119635145</v>
       </c>
       <c r="E21">
-        <v>0.9948579793611417</v>
+        <v>1.044743811405406</v>
       </c>
       <c r="F21">
-        <v>0.994308536983766</v>
+        <v>1.052373356229861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042390983541348</v>
+        <v>1.038621336763519</v>
       </c>
       <c r="J21">
-        <v>1.009886261375646</v>
+        <v>1.043821760996281</v>
       </c>
       <c r="K21">
-        <v>1.034996123792268</v>
+        <v>1.037985225806684</v>
       </c>
       <c r="L21">
-        <v>1.009937428154694</v>
+        <v>1.048291709609952</v>
       </c>
       <c r="M21">
-        <v>1.009398544129174</v>
+        <v>1.055893606326746</v>
       </c>
       <c r="N21">
-        <v>1.006516364403326</v>
+        <v>1.018409380741785</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9746348995407698</v>
+        <v>1.036394416640135</v>
       </c>
       <c r="D22">
-        <v>1.018069132133748</v>
+        <v>1.033996162708268</v>
       </c>
       <c r="E22">
-        <v>0.9906543875623784</v>
+        <v>1.043963429159635</v>
       </c>
       <c r="F22">
-        <v>0.9895200730795198</v>
+        <v>1.05147192459246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040878752139034</v>
+        <v>1.038420202542696</v>
       </c>
       <c r="J22">
-        <v>1.006530221856805</v>
+        <v>1.043221093135096</v>
       </c>
       <c r="K22">
-        <v>1.033290937966403</v>
+        <v>1.037713042605717</v>
       </c>
       <c r="L22">
-        <v>1.006413284439176</v>
+        <v>1.047642031460221</v>
       </c>
       <c r="M22">
-        <v>1.00530203791321</v>
+        <v>1.055122222620098</v>
       </c>
       <c r="N22">
-        <v>1.005361069915372</v>
+        <v>1.018205098535913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9772318532614896</v>
+        <v>1.036845329558809</v>
       </c>
       <c r="D23">
-        <v>1.019305819436239</v>
+        <v>1.034209802390307</v>
       </c>
       <c r="E23">
-        <v>0.9928945087709414</v>
+        <v>1.044377126201429</v>
       </c>
       <c r="F23">
-        <v>0.992071867092579</v>
+        <v>1.051949764912849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041685891622137</v>
+        <v>1.038526991008533</v>
       </c>
       <c r="J23">
-        <v>1.008319624531687</v>
+        <v>1.043539614271855</v>
       </c>
       <c r="K23">
-        <v>1.034200099009505</v>
+        <v>1.037857429161127</v>
       </c>
       <c r="L23">
-        <v>1.008291943882941</v>
+        <v>1.0479864988181</v>
       </c>
       <c r="M23">
-        <v>1.007485539332666</v>
+        <v>1.055531177129241</v>
       </c>
       <c r="N23">
-        <v>1.005977072772441</v>
+        <v>1.018313438672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9871409270872338</v>
+        <v>1.038619501007847</v>
       </c>
       <c r="D24">
-        <v>1.02404935413651</v>
+        <v>1.035050332481095</v>
       </c>
       <c r="E24">
-        <v>1.001462437161608</v>
+        <v>1.04600578602918</v>
       </c>
       <c r="F24">
-        <v>1.001832314898124</v>
+        <v>1.053831559221933</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044745242959505</v>
+        <v>1.038943784794389</v>
       </c>
       <c r="J24">
-        <v>1.015143122800635</v>
+        <v>1.044791487762036</v>
       </c>
       <c r="K24">
-        <v>1.037666900683363</v>
+        <v>1.038423711281002</v>
       </c>
       <c r="L24">
-        <v>1.015463919346021</v>
+        <v>1.049341298043641</v>
       </c>
       <c r="M24">
-        <v>1.015827329260445</v>
+        <v>1.057140551695789</v>
       </c>
       <c r="N24">
-        <v>1.008325706136627</v>
+        <v>1.018738939840072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9980526287332939</v>
+        <v>1.040676283627762</v>
       </c>
       <c r="D25">
-        <v>1.029315200498515</v>
+        <v>1.036024555526831</v>
       </c>
       <c r="E25">
-        <v>1.010935252049913</v>
+        <v>1.047895758235349</v>
       </c>
       <c r="F25">
-        <v>1.01262591671369</v>
+        <v>1.0560165592802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048069073949384</v>
+        <v>1.039419955054656</v>
       </c>
       <c r="J25">
-        <v>1.022645707889166</v>
+        <v>1.046239889502806</v>
       </c>
       <c r="K25">
-        <v>1.041474863243578</v>
+        <v>1.039076379263437</v>
       </c>
       <c r="L25">
-        <v>1.023366151331967</v>
+        <v>1.050910752972441</v>
       </c>
       <c r="M25">
-        <v>1.02503134311224</v>
+        <v>1.059006880281326</v>
       </c>
       <c r="N25">
-        <v>1.010906858709957</v>
+        <v>1.019230603469915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.042315208657007</v>
+        <v>1.006338893717812</v>
       </c>
       <c r="D2">
-        <v>1.036800625962593</v>
+        <v>1.033340780053692</v>
       </c>
       <c r="E2">
-        <v>1.04940325582198</v>
+        <v>1.018156126608982</v>
       </c>
       <c r="F2">
-        <v>1.057760421188101</v>
+        <v>1.020856701071896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039793709644768</v>
+        <v>1.050553900518562</v>
       </c>
       <c r="J2">
-        <v>1.047391692388213</v>
+        <v>1.028331648577761</v>
       </c>
       <c r="K2">
-        <v>1.039593331127416</v>
+        <v>1.044354373241043</v>
       </c>
       <c r="L2">
-        <v>1.052160411215785</v>
+        <v>1.029368182479534</v>
       </c>
       <c r="M2">
-        <v>1.060494508644685</v>
+        <v>1.032032919136592</v>
       </c>
       <c r="N2">
-        <v>1.019621067833031</v>
+        <v>1.012861596921958</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04350435527642</v>
+        <v>1.012138235999001</v>
       </c>
       <c r="D3">
-        <v>1.037363547642832</v>
+        <v>1.036170464343057</v>
       </c>
       <c r="E3">
-        <v>1.050497898448737</v>
+        <v>1.023224290530917</v>
       </c>
       <c r="F3">
-        <v>1.059027304634823</v>
+        <v>1.026636053164933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040061590554108</v>
+        <v>1.052268773340456</v>
       </c>
       <c r="J3">
-        <v>1.048226035729607</v>
+        <v>1.032303382334513</v>
       </c>
       <c r="K3">
-        <v>1.039966583463774</v>
+        <v>1.046360545150453</v>
       </c>
       <c r="L3">
-        <v>1.053066563696003</v>
+        <v>1.033568391668635</v>
       </c>
       <c r="M3">
-        <v>1.061574142107846</v>
+        <v>1.036939097056969</v>
       </c>
       <c r="N3">
-        <v>1.019903609287751</v>
+        <v>1.014225985007105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044273430608172</v>
+        <v>1.015797528808434</v>
       </c>
       <c r="D4">
-        <v>1.037727525350693</v>
+        <v>1.037960672533749</v>
       </c>
       <c r="E4">
-        <v>1.051206245785404</v>
+        <v>1.026428524401232</v>
       </c>
       <c r="F4">
-        <v>1.059847393168399</v>
+        <v>1.030291179575388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040233309818786</v>
+        <v>1.053339170761538</v>
       </c>
       <c r="J4">
-        <v>1.04876500980023</v>
+        <v>1.034805586438351</v>
       </c>
       <c r="K4">
-        <v>1.040207129149878</v>
+        <v>1.04762155580847</v>
       </c>
       <c r="L4">
-        <v>1.053652354057521</v>
+        <v>1.036218110209731</v>
       </c>
       <c r="M4">
-        <v>1.062272509390017</v>
+        <v>1.040037261811312</v>
       </c>
       <c r="N4">
-        <v>1.02008598581088</v>
+        <v>1.015085010230926</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044596660283887</v>
+        <v>1.017314561449932</v>
       </c>
       <c r="D5">
-        <v>1.037880476017008</v>
+        <v>1.038703836940223</v>
       </c>
       <c r="E5">
-        <v>1.051504045809342</v>
+        <v>1.027758362612358</v>
       </c>
       <c r="F5">
-        <v>1.060192239027051</v>
+        <v>1.031808475812191</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040305113380398</v>
+        <v>1.053780059620851</v>
       </c>
       <c r="J5">
-        <v>1.048991379598007</v>
+        <v>1.035841942884597</v>
       </c>
       <c r="K5">
-        <v>1.040308021119713</v>
+        <v>1.048143078604221</v>
       </c>
       <c r="L5">
-        <v>1.053898489504403</v>
+        <v>1.03731642551858</v>
       </c>
       <c r="M5">
-        <v>1.062566049809865</v>
+        <v>1.041322211150857</v>
       </c>
       <c r="N5">
-        <v>1.020162550205713</v>
+        <v>1.015440659157721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04465092676918</v>
+        <v>1.017568054589325</v>
       </c>
       <c r="D6">
-        <v>1.037906153237088</v>
+        <v>1.038828073093223</v>
       </c>
       <c r="E6">
-        <v>1.051554048410385</v>
+        <v>1.027980660255805</v>
       </c>
       <c r="F6">
-        <v>1.060250144938766</v>
+        <v>1.032062129060941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040317146808789</v>
+        <v>1.053853560833776</v>
       </c>
       <c r="J6">
-        <v>1.049029375510372</v>
+        <v>1.03601505690972</v>
       </c>
       <c r="K6">
-        <v>1.040324947625668</v>
+        <v>1.048230147718345</v>
       </c>
       <c r="L6">
-        <v>1.053939809088383</v>
+        <v>1.037499940016746</v>
       </c>
       <c r="M6">
-        <v>1.0626153334581</v>
+        <v>1.041536954381477</v>
       </c>
       <c r="N6">
-        <v>1.02017539945487</v>
+        <v>1.015500058610018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04427774996863</v>
+        <v>1.015817882032515</v>
       </c>
       <c r="D7">
-        <v>1.0377295693437</v>
+        <v>1.037970639405416</v>
       </c>
       <c r="E7">
-        <v>1.05121022496003</v>
+        <v>1.026446360434295</v>
       </c>
       <c r="F7">
-        <v>1.059852000696811</v>
+        <v>1.030311528509612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040234270782951</v>
+        <v>1.053345097353402</v>
       </c>
       <c r="J7">
-        <v>1.048768035407718</v>
+        <v>1.034819494628162</v>
       </c>
       <c r="K7">
-        <v>1.040208478191043</v>
+        <v>1.047628557879794</v>
       </c>
       <c r="L7">
-        <v>1.05365564344413</v>
+        <v>1.036232846490218</v>
       </c>
       <c r="M7">
-        <v>1.062276431898789</v>
+        <v>1.040054499202633</v>
       </c>
       <c r="N7">
-        <v>1.020087009287011</v>
+        <v>1.015089783703747</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04271716655607</v>
+        <v>1.008318740700246</v>
       </c>
       <c r="D8">
-        <v>1.036990923424569</v>
+        <v>1.034305732541239</v>
       </c>
       <c r="E8">
-        <v>1.049773187754193</v>
+        <v>1.019884996048695</v>
       </c>
       <c r="F8">
-        <v>1.05818850295723</v>
+        <v>1.02282792386499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039884576210931</v>
+        <v>1.051141754092448</v>
       </c>
       <c r="J8">
-        <v>1.047673849970456</v>
+        <v>1.029688355485368</v>
       </c>
       <c r="K8">
-        <v>1.039719674858042</v>
+        <v>1.045040227829693</v>
       </c>
       <c r="L8">
-        <v>1.052466764394224</v>
+        <v>1.030802184197439</v>
       </c>
       <c r="M8">
-        <v>1.06085942379625</v>
+        <v>1.033707305921341</v>
       </c>
       <c r="N8">
-        <v>1.019716646677932</v>
+        <v>1.013327767538287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039964209072073</v>
+        <v>0.9943416178385512</v>
       </c>
       <c r="D9">
-        <v>1.035687302469487</v>
+        <v>1.027519610920644</v>
       </c>
       <c r="E9">
-        <v>1.047241202055711</v>
+        <v>1.007709073295207</v>
       </c>
       <c r="F9">
-        <v>1.055259665297458</v>
+        <v>1.008949502817504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039255978611594</v>
+        <v>1.046944675757792</v>
       </c>
       <c r="J9">
-        <v>1.045738802657128</v>
+        <v>1.020095782722907</v>
       </c>
       <c r="K9">
-        <v>1.038850900644257</v>
+        <v>1.040181440525444</v>
       </c>
       <c r="L9">
-        <v>1.050367540426369</v>
+        <v>1.020678302230698</v>
       </c>
       <c r="M9">
-        <v>1.058360669571199</v>
+        <v>1.021899030343564</v>
       </c>
       <c r="N9">
-        <v>1.01906058818635</v>
+        <v>1.010029791634579</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038126760129324</v>
+        <v>0.9844368742034282</v>
       </c>
       <c r="D10">
-        <v>1.034816904084407</v>
+        <v>1.022751119494951</v>
       </c>
       <c r="E10">
-        <v>1.04555330970536</v>
+        <v>0.9991211408063607</v>
       </c>
       <c r="F10">
-        <v>1.053308657039039</v>
+        <v>0.9991650261288985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038828577559311</v>
+        <v>1.043913854693495</v>
       </c>
       <c r="J10">
-        <v>1.044444030248121</v>
+        <v>1.013281869737436</v>
       </c>
       <c r="K10">
-        <v>1.038266735053468</v>
+        <v>1.036721396482287</v>
       </c>
       <c r="L10">
-        <v>1.04896511911305</v>
+        <v>1.013506281478656</v>
       </c>
       <c r="M10">
-        <v>1.056693532682821</v>
+        <v>1.013549372669713</v>
       </c>
       <c r="N10">
-        <v>1.01862089161656</v>
+        <v>1.007685142332015</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037330588411209</v>
+        <v>0.9799902851482832</v>
       </c>
       <c r="D11">
-        <v>1.034439709186721</v>
+        <v>1.020622413728316</v>
       </c>
       <c r="E11">
-        <v>1.044822439405049</v>
+        <v>0.995276344218245</v>
       </c>
       <c r="F11">
-        <v>1.052464192978178</v>
+        <v>0.9947851175016026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038641529329598</v>
+        <v>1.042540925799538</v>
       </c>
       <c r="J11">
-        <v>1.043882239517319</v>
+        <v>1.010219852246504</v>
       </c>
       <c r="K11">
-        <v>1.038012606653993</v>
+        <v>1.03516562601014</v>
       </c>
       <c r="L11">
-        <v>1.048357141916208</v>
+        <v>1.01028789496681</v>
       </c>
       <c r="M11">
-        <v>1.055971315263222</v>
+        <v>1.009806053541404</v>
       </c>
       <c r="N11">
-        <v>1.018429942855686</v>
+        <v>1.006631194579644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037034770551314</v>
+        <v>0.9783131538903109</v>
       </c>
       <c r="D12">
-        <v>1.03429955686657</v>
+        <v>1.019821556231807</v>
       </c>
       <c r="E12">
-        <v>1.044550959753744</v>
+        <v>0.993827886222016</v>
       </c>
       <c r="F12">
-        <v>1.05215056967872</v>
+        <v>0.993135112386761</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038571753479902</v>
+        <v>1.042021353607461</v>
       </c>
       <c r="J12">
-        <v>1.043673391855925</v>
+        <v>1.009064568585059</v>
       </c>
       <c r="K12">
-        <v>1.037918034864038</v>
+        <v>1.034578610482604</v>
       </c>
       <c r="L12">
-        <v>1.048131202517521</v>
+        <v>1.009074297261283</v>
       </c>
       <c r="M12">
-        <v>1.055702999212001</v>
+        <v>1.008395025294797</v>
       </c>
       <c r="N12">
-        <v>1.01835893187749</v>
+        <v>1.006233512010035</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037098228338032</v>
+        <v>0.9786740871110633</v>
       </c>
       <c r="D13">
-        <v>1.034329622055139</v>
+        <v>1.019993812233619</v>
       </c>
       <c r="E13">
-        <v>1.044609193171557</v>
+        <v>0.994139528852616</v>
       </c>
       <c r="F13">
-        <v>1.052217840791925</v>
+        <v>0.9934901174052297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038586734116627</v>
+        <v>1.042133246926658</v>
       </c>
       <c r="J13">
-        <v>1.043718198265808</v>
+        <v>1.009313211283042</v>
       </c>
       <c r="K13">
-        <v>1.037938328848639</v>
+        <v>1.034704948920152</v>
       </c>
       <c r="L13">
-        <v>1.048179672269169</v>
+        <v>1.009335459603477</v>
       </c>
       <c r="M13">
-        <v>1.055760556314189</v>
+        <v>1.008698651195244</v>
       </c>
       <c r="N13">
-        <v>1.018374167785597</v>
+        <v>1.00631910340756</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03730613774732</v>
+        <v>0.9798521833783775</v>
       </c>
       <c r="D14">
-        <v>1.034428125072964</v>
+        <v>1.020556425296891</v>
       </c>
       <c r="E14">
-        <v>1.044799998860086</v>
+        <v>0.9951570373605771</v>
       </c>
       <c r="F14">
-        <v>1.052438267806453</v>
+        <v>0.9946492088662194</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038635767712611</v>
+        <v>1.042498176844368</v>
       </c>
       <c r="J14">
-        <v>1.043864979653592</v>
+        <v>1.010124728658794</v>
       </c>
       <c r="K14">
-        <v>1.038004792933648</v>
+        <v>1.035117292414527</v>
       </c>
       <c r="L14">
-        <v>1.04833846793948</v>
+        <v>1.010187956062761</v>
       </c>
       <c r="M14">
-        <v>1.055949137253228</v>
+        <v>1.009689846068809</v>
       </c>
       <c r="N14">
-        <v>1.018424074784068</v>
+        <v>1.006598450842425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03743422636026</v>
+        <v>0.9805746165098712</v>
       </c>
       <c r="D15">
-        <v>1.034488810046861</v>
+        <v>1.020901705724738</v>
       </c>
       <c r="E15">
-        <v>1.044917560244702</v>
+        <v>0.9957812207352214</v>
       </c>
       <c r="F15">
-        <v>1.052574086495019</v>
+        <v>0.9953602502089126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038665939460101</v>
+        <v>1.042721733454196</v>
       </c>
       <c r="J15">
-        <v>1.043955393468165</v>
+        <v>1.010622321055489</v>
       </c>
       <c r="K15">
-        <v>1.038045720177465</v>
+        <v>1.035370125283486</v>
       </c>
       <c r="L15">
-        <v>1.048436292625185</v>
+        <v>1.010710765221463</v>
       </c>
       <c r="M15">
-        <v>1.056065321202283</v>
+        <v>1.010297781546632</v>
       </c>
       <c r="N15">
-        <v>1.018454812976435</v>
+        <v>1.006769732369261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038179587747436</v>
+        <v>0.9847285087439066</v>
       </c>
       <c r="D16">
-        <v>1.034841930869288</v>
+        <v>1.022891001480837</v>
       </c>
       <c r="E16">
-        <v>1.045601814985224</v>
+        <v>0.9993735347874581</v>
       </c>
       <c r="F16">
-        <v>1.053364708221711</v>
+        <v>0.9994525565632321</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03884094958315</v>
+        <v>1.044003653328322</v>
       </c>
       <c r="J16">
-        <v>1.044481290186952</v>
+        <v>1.013482639474612</v>
       </c>
       <c r="K16">
-        <v>1.038283575858406</v>
+        <v>1.036823394807425</v>
       </c>
       <c r="L16">
-        <v>1.049005453270176</v>
+        <v>1.013717398442085</v>
       </c>
       <c r="M16">
-        <v>1.056741456635065</v>
+        <v>1.013794995477809</v>
       </c>
       <c r="N16">
-        <v>1.018633552483496</v>
+        <v>1.007754241972641</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038646985810553</v>
+        <v>0.9872907021024513</v>
       </c>
       <c r="D17">
-        <v>1.035063352650953</v>
+        <v>1.024121342810071</v>
       </c>
       <c r="E17">
-        <v>1.046031028294044</v>
+        <v>1.001592190593843</v>
       </c>
       <c r="F17">
-        <v>1.053860732629976</v>
+        <v>1.001980138526142</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038950198349312</v>
+        <v>1.044791210583552</v>
       </c>
       <c r="J17">
-        <v>1.044810863546665</v>
+        <v>1.015246195765431</v>
       </c>
       <c r="K17">
-        <v>1.038432460455647</v>
+        <v>1.037719255041108</v>
       </c>
       <c r="L17">
-        <v>1.049362279014987</v>
+        <v>1.015572360416276</v>
       </c>
       <c r="M17">
-        <v>1.057165487233743</v>
+        <v>1.015953537591719</v>
       </c>
       <c r="N17">
-        <v>1.018745521591502</v>
+        <v>1.00836117734176</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038919558854289</v>
+        <v>0.9887700918379143</v>
       </c>
       <c r="D18">
-        <v>1.035192474594813</v>
+        <v>1.024832853269517</v>
       </c>
       <c r="E18">
-        <v>1.046281381094754</v>
+        <v>1.002874221414531</v>
       </c>
       <c r="F18">
-        <v>1.054150087781443</v>
+        <v>1.003440737050038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039013730208177</v>
+        <v>1.045244772566342</v>
       </c>
       <c r="J18">
-        <v>1.045002987663223</v>
+        <v>1.016264169228736</v>
       </c>
       <c r="K18">
-        <v>1.038519188374241</v>
+        <v>1.038236277762917</v>
       </c>
       <c r="L18">
-        <v>1.049570340114941</v>
+        <v>1.016643525803729</v>
       </c>
       <c r="M18">
-        <v>1.057412784800769</v>
+        <v>1.017200342022999</v>
       </c>
       <c r="N18">
-        <v>1.018810777538475</v>
+        <v>1.008711486485755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039012490414978</v>
+        <v>0.9892720161198463</v>
       </c>
       <c r="D19">
-        <v>1.035236496791529</v>
+        <v>1.025074436883839</v>
       </c>
       <c r="E19">
-        <v>1.046366744968029</v>
+        <v>1.00330935253066</v>
       </c>
       <c r="F19">
-        <v>1.054248755988095</v>
+        <v>1.003936486302525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039035360523133</v>
+        <v>1.045398455143707</v>
       </c>
       <c r="J19">
-        <v>1.045068478331054</v>
+        <v>1.01660949380339</v>
       </c>
       <c r="K19">
-        <v>1.03854874101857</v>
+        <v>1.038411647367586</v>
       </c>
       <c r="L19">
-        <v>1.049641271860196</v>
+        <v>1.017006967535134</v>
       </c>
       <c r="M19">
-        <v>1.057497101455705</v>
+        <v>1.017623434421532</v>
       </c>
       <c r="N19">
-        <v>1.018833019026403</v>
+        <v>1.008830315356712</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038596843854517</v>
+        <v>0.9870173764952663</v>
       </c>
       <c r="D20">
-        <v>1.035039599249745</v>
+        <v>1.023989976431889</v>
       </c>
       <c r="E20">
-        <v>1.04598497778699</v>
+        <v>1.001355408164298</v>
       </c>
       <c r="F20">
-        <v>1.053807510559644</v>
+        <v>1.001710380768789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038938496758784</v>
+        <v>1.044707317278777</v>
       </c>
       <c r="J20">
-        <v>1.04477551487966</v>
+        <v>1.015058095447368</v>
       </c>
       <c r="K20">
-        <v>1.038416498332344</v>
+        <v>1.03762371178309</v>
       </c>
       <c r="L20">
-        <v>1.049324002171369</v>
+        <v>1.015374466150281</v>
       </c>
       <c r="M20">
-        <v>1.057119996119541</v>
+        <v>1.015723221718168</v>
       </c>
       <c r="N20">
-        <v>1.018733513927487</v>
+        <v>1.008296444915335</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037244915953478</v>
+        <v>0.9795059815623954</v>
       </c>
       <c r="D21">
-        <v>1.034399119635145</v>
+        <v>1.020391035017384</v>
       </c>
       <c r="E21">
-        <v>1.044743811405406</v>
+        <v>0.9948579793611421</v>
       </c>
       <c r="F21">
-        <v>1.052373356229861</v>
+        <v>0.9943085369837665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038621336763519</v>
+        <v>1.042390983541348</v>
       </c>
       <c r="J21">
-        <v>1.043821760996281</v>
+        <v>1.009886261375646</v>
       </c>
       <c r="K21">
-        <v>1.037985225806684</v>
+        <v>1.034996123792268</v>
       </c>
       <c r="L21">
-        <v>1.048291709609952</v>
+        <v>1.009937428154694</v>
       </c>
       <c r="M21">
-        <v>1.055893606326746</v>
+        <v>1.009398544129174</v>
       </c>
       <c r="N21">
-        <v>1.018409380741785</v>
+        <v>1.006516364403326</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036394416640135</v>
+        <v>0.9746348995407685</v>
       </c>
       <c r="D22">
-        <v>1.033996162708268</v>
+        <v>1.018069132133747</v>
       </c>
       <c r="E22">
-        <v>1.043963429159635</v>
+        <v>0.990654387562377</v>
       </c>
       <c r="F22">
-        <v>1.05147192459246</v>
+        <v>0.9895200730795181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038420202542696</v>
+        <v>1.040878752139033</v>
       </c>
       <c r="J22">
-        <v>1.043221093135096</v>
+        <v>1.006530221856803</v>
       </c>
       <c r="K22">
-        <v>1.037713042605717</v>
+        <v>1.033290937966403</v>
       </c>
       <c r="L22">
-        <v>1.047642031460221</v>
+        <v>1.006413284439175</v>
       </c>
       <c r="M22">
-        <v>1.055122222620098</v>
+        <v>1.005302037913209</v>
       </c>
       <c r="N22">
-        <v>1.018205098535913</v>
+        <v>1.005361069915372</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036845329558809</v>
+        <v>0.9772318532614898</v>
       </c>
       <c r="D23">
-        <v>1.034209802390307</v>
+        <v>1.019305819436239</v>
       </c>
       <c r="E23">
-        <v>1.044377126201429</v>
+        <v>0.9928945087709414</v>
       </c>
       <c r="F23">
-        <v>1.051949764912849</v>
+        <v>0.992071867092579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038526991008533</v>
+        <v>1.041685891622137</v>
       </c>
       <c r="J23">
-        <v>1.043539614271855</v>
+        <v>1.008319624531687</v>
       </c>
       <c r="K23">
-        <v>1.037857429161127</v>
+        <v>1.034200099009505</v>
       </c>
       <c r="L23">
-        <v>1.0479864988181</v>
+        <v>1.008291943882941</v>
       </c>
       <c r="M23">
-        <v>1.055531177129241</v>
+        <v>1.007485539332666</v>
       </c>
       <c r="N23">
-        <v>1.018313438672</v>
+        <v>1.005977072772441</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038619501007847</v>
+        <v>0.9871409270872331</v>
       </c>
       <c r="D24">
-        <v>1.035050332481095</v>
+        <v>1.024049354136509</v>
       </c>
       <c r="E24">
-        <v>1.04600578602918</v>
+        <v>1.001462437161608</v>
       </c>
       <c r="F24">
-        <v>1.053831559221933</v>
+        <v>1.001832314898123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038943784794389</v>
+        <v>1.044745242959505</v>
       </c>
       <c r="J24">
-        <v>1.044791487762036</v>
+        <v>1.015143122800634</v>
       </c>
       <c r="K24">
-        <v>1.038423711281002</v>
+        <v>1.037666900683362</v>
       </c>
       <c r="L24">
-        <v>1.049341298043641</v>
+        <v>1.01546391934602</v>
       </c>
       <c r="M24">
-        <v>1.057140551695789</v>
+        <v>1.015827329260444</v>
       </c>
       <c r="N24">
-        <v>1.018738939840072</v>
+        <v>1.008325706136626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040676283627762</v>
+        <v>0.9980526287332935</v>
       </c>
       <c r="D25">
-        <v>1.036024555526831</v>
+        <v>1.029315200498515</v>
       </c>
       <c r="E25">
-        <v>1.047895758235349</v>
+        <v>1.010935252049912</v>
       </c>
       <c r="F25">
-        <v>1.0560165592802</v>
+        <v>1.012625916713689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039419955054656</v>
+        <v>1.048069073949384</v>
       </c>
       <c r="J25">
-        <v>1.046239889502806</v>
+        <v>1.022645707889166</v>
       </c>
       <c r="K25">
-        <v>1.039076379263437</v>
+        <v>1.041474863243577</v>
       </c>
       <c r="L25">
-        <v>1.050910752972441</v>
+        <v>1.023366151331966</v>
       </c>
       <c r="M25">
-        <v>1.059006880281326</v>
+        <v>1.025031343112239</v>
       </c>
       <c r="N25">
-        <v>1.019230603469915</v>
+        <v>1.010906858709956</v>
       </c>
     </row>
   </sheetData>
